--- a/biology/Zoologie/Catalanura/Catalanura.xlsx
+++ b/biology/Zoologie/Catalanura/Catalanura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catalanura est un genre de collemboles de la famille des Neanuridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe du Sud.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Checklist of the Collembola of the World (version du 10 octobre 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Checklist of the Collembola of the World (version du 10 octobre 2019) :
 Catalanura catalana (Deharveng, 1979)
 Catalanura florae Arbea &amp; Jordana, 1991
 Catalanura najtae (Deharveng, 1979)</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Deharveng, 1982 : Clé de détermination des genres de Neanurinae (Collemboles) d'Europe et de la région méditerranéenne, avec description de deux nouveaux genres. Travaux du Laboratoire d'Écobiologie des Arthropodes Edaphiques Toulouse, vol. 3, no 4, p. 7-13.</t>
         </is>
